--- a/added_tags.xlsx
+++ b/added_tags.xlsx
@@ -1,49 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/z2211982/github/RSVcorrelates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B129EB45-B9FD-8E48-BCFC-9EE11142E56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E2B65BC-EE9A-404B-BF11-ED3E9D1AA927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="2260" windowWidth="26840" windowHeight="15620" xr2:uid="{7B4A353B-33A0-0E4C-BC3E-F446DEB1B243}"/>
+    <workbookView xWindow="-32260" yWindow="500" windowWidth="25640" windowHeight="14440" xr2:uid="{EEFD6FB0-870F-CC4E-9918-6E1B32B91288}"/>
   </bookViews>
   <sheets>
     <sheet name="added_tags" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId2"/>
+    <pivotCache cacheId="150" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="23">
   <si>
-    <t>NCT number:Possible RCT</t>
+    <t>added_tag</t>
   </si>
   <si>
-    <t>No NCT number:Possible RCT</t>
+    <t>viral vector:not approved</t>
   </si>
   <si>
-    <t>No NCT number:Not RCT</t>
+    <t>mRNA:approval unknown</t>
   </si>
   <si>
-    <t>No NCT number:NA</t>
+    <t>monoclonal antibody:approval unknown</t>
   </si>
   <si>
-    <t>NCT number:NA</t>
+    <t>protein subunit:not approved</t>
   </si>
   <si>
-    <t>NCT number:RCT</t>
+    <t>protein subunit:approved</t>
   </si>
   <si>
-    <t>tag</t>
+    <t>recombinant vector vaccine:approval unknown</t>
+  </si>
+  <si>
+    <t>protein based particle/subunit vaccine:approval unknown</t>
+  </si>
+  <si>
+    <t>chimeric vaccine:approval unknown</t>
+  </si>
+  <si>
+    <t>live-attenuated:not approved</t>
+  </si>
+  <si>
+    <t>formalin inactivated:approval unknown</t>
+  </si>
+  <si>
+    <t>combination vaccine:not approved</t>
+  </si>
+  <si>
+    <t>monoclonal antibody:approved</t>
+  </si>
+  <si>
+    <t>live-attenuated:approval unknown</t>
+  </si>
+  <si>
+    <t>protein subunit:approval unknown</t>
+  </si>
+  <si>
+    <t>virus-like particles:not approved</t>
+  </si>
+  <si>
+    <t>monoclonal antibody:not approved</t>
+  </si>
+  <si>
+    <t>mRNA:approved</t>
+  </si>
+  <si>
+    <t>NA:approval unknown</t>
   </si>
   <si>
     <t>Row Labels</t>
@@ -55,7 +91,7 @@
     <t>Grand Total</t>
   </si>
   <si>
-    <t>Count of tag</t>
+    <t>Count of added_tag</t>
   </si>
 </sst>
 </file>
@@ -605,19 +641,31 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Deborah Cromer" refreshedDate="45974.60862175926" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="122" xr:uid="{87893AA0-6A07-874A-B2AF-5FF2F09DB92F}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45978.655973726854" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="122" xr:uid="{81C307BD-1DE3-CA4F-9E1B-408F57BC88C0}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:A1048576" sheet="added_tags"/>
   </cacheSource>
   <cacheFields count="1">
-    <cacheField name="tag" numFmtId="0">
-      <sharedItems containsBlank="1" count="7">
-        <s v="NCT number:Possible RCT"/>
-        <s v="No NCT number:Possible RCT"/>
-        <s v="No NCT number:Not RCT"/>
-        <s v="No NCT number:NA"/>
-        <s v="NCT number:NA"/>
-        <s v="NCT number:RCT"/>
+    <cacheField name="added_tag" numFmtId="0">
+      <sharedItems containsBlank="1" count="19">
+        <s v="viral vector:not approved"/>
+        <s v="mRNA:approval unknown"/>
+        <s v="monoclonal antibody:approval unknown"/>
+        <s v="protein subunit:not approved"/>
+        <s v="protein subunit:approved"/>
+        <s v="recombinant vector vaccine:approval unknown"/>
+        <s v="protein based particle/subunit vaccine:approval unknown"/>
+        <s v="chimeric vaccine:approval unknown"/>
+        <s v="live-attenuated:not approved"/>
+        <s v="formalin inactivated:approval unknown"/>
+        <s v="combination vaccine:not approved"/>
+        <s v="monoclonal antibody:approved"/>
+        <s v="live-attenuated:approval unknown"/>
+        <s v="protein subunit:approval unknown"/>
+        <s v="virus-like particles:not approved"/>
+        <s v="monoclonal antibody:not approved"/>
+        <s v="mRNA:approved"/>
+        <s v="NA:approval unknown"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -639,381 +687,393 @@
     <x v="1"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="9"/>
   </r>
   <r>
     <x v="0"/>
   </r>
   <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
     <x v="0"/>
   </r>
   <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
     <x v="0"/>
   </r>
   <r>
     <x v="0"/>
   </r>
   <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
     <x v="0"/>
   </r>
   <r>
-    <x v="2"/>
-  </r>
-  <r>
     <x v="0"/>
   </r>
   <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
     <x v="0"/>
   </r>
   <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
     <x v="0"/>
   </r>
   <r>
     <x v="0"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="4"/>
   </r>
   <r>
     <x v="3"/>
   </r>
   <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
     <x v="0"/>
   </r>
   <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="6"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="18"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6E46131E-561D-8C4C-9B63-75D347550777}" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="E5:F13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8AC3E9F8-394D-A24C-9147-BB6197C1AE07}" name="PivotTable3" cacheId="150" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F7:G27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="8">
+      <items count="20">
+        <item x="7"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="12"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="11"/>
+        <item x="15"/>
+        <item x="1"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="6"/>
+        <item x="13"/>
         <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
         <item x="0"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="6"/>
+        <item x="14"/>
+        <item x="18"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1021,7 +1081,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="20">
     <i>
       <x/>
     </i>
@@ -1043,6 +1103,42 @@
     <i>
       <x v="6"/>
     </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -1051,7 +1147,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Count of tag" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of added_tag" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -1381,679 +1477,751 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDD4F56-AC1A-4945-B927-F1F2C69AFAAA}">
-  <dimension ref="A1:F122"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B966C9FD-75DB-4F43-923D-3956A36C7B1F}">
+  <dimension ref="A1:G122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F8" sqref="F8:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="F19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G22" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="G24" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="3">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="3">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
